--- a/data/out/kaggle/uefa/standings_wc_eufa_men.xlsx
+++ b/data/out/kaggle/uefa/standings_wc_eufa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,37 +466,32 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>scorer_team</t>
+          <t>new_top_teams</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>new_top_teams</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>extra_time</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>extra_time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>player_team_name</t>
+          <t>scorer_nationality</t>
         </is>
       </c>
     </row>
@@ -519,29 +514,28 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Italy']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -562,29 +556,28 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Mexico', 'Paraguay']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>Belgium</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -605,29 +598,28 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['France', 'Hungary', 'Soviet Union']</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Hungary', 'Soviet Union', 'France']</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Hungary</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -648,29 +640,28 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>Northern Ireland</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -697,31 +688,30 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Spain', 'Algeria']</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Algeria', 'Spain', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>Algeria</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
@@ -752,31 +742,30 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Spain', 'Brazil', 'Northern Ireland']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>Northern Ireland</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -801,29 +790,28 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Denmark', 'West Germany', 'Uruguay']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>West Germany</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
           <t>Uruguay</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -844,29 +832,28 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Poland', 'Portugal', 'England']</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['England', 'Portugal', 'Poland']</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
           <t>England</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -887,29 +874,28 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Italy', 'Austria']</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
           <t>Austria</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -930,29 +916,28 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
           <t>Argentina</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -979,31 +964,30 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Cameroon', 'Soviet Union']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
@@ -1034,31 +1018,30 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Romania', 'Argentina']</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
@@ -1083,29 +1066,28 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1132,31 +1114,30 @@
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Sweden', 'Scotland', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
@@ -1187,31 +1168,30 @@
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Scotland', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
@@ -1236,29 +1216,28 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
           <t>Yugoslavia</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1279,29 +1258,28 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Belgium', 'Uruguay', 'Spain']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
           <t>Uruguay</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1322,29 +1300,28 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Egypt', 'Republic of Ireland', 'England']</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1371,15 +1348,19 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['England', 'Netherlands', 'Egypt']</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Egypt', 'Netherlands', 'England']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1387,15 +1368,10 @@
           <t>Egypt</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
@@ -1426,31 +1402,30 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
@@ -1475,29 +1450,28 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['United States', 'Romania', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Romania', 'United States', 'Switzerland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
           <t>Romania</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1524,31 +1498,30 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Romania', 'Colombia']</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Colombia', 'Romania', 'Switzerland']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Colombia</t>
         </is>
@@ -1573,29 +1546,28 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Sweden', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
           <t>Cameroon</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1622,31 +1594,30 @@
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Russia', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Sweden', 'Brazil', 'Russia']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
@@ -1671,29 +1642,28 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'South Korea']</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany', 'South Korea']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
           <t>South Korea</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1714,29 +1684,28 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bulgaria', 'Nigeria']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1757,29 +1726,28 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1806,31 +1774,30 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Italy', 'Republic of Ireland', 'Norway']</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Norway']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
@@ -1861,31 +1828,30 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Mexico', 'Italy']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Mexico</t>
         </is>
@@ -1910,29 +1876,28 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
           <t>Netherlands</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1953,29 +1918,28 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Morocco']</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Morocco', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
           <t>Scotland</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1996,29 +1960,28 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Italy', 'Chile']</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
           <t>Austria</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2039,29 +2002,28 @@
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['France', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
           <t>South Africa</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2082,29 +2044,28 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Spain', 'Nigeria']</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2125,29 +2086,28 @@
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
           <t>Belgium</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2168,29 +2128,28 @@
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Germany', 'Yugoslavia']</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Germany']</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
           <t>Iran</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2211,29 +2170,28 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['England', 'Romania']</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
           <t>Colombia</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2254,29 +2212,28 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
           <t>Japan</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2297,29 +2254,28 @@
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Senegal', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Denmark', 'Senegal']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
           <t>Uruguay</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2340,29 +2296,28 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['South Africa', 'Spain']</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
           <t>Paraguay</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2383,29 +2338,28 @@
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Costa Rica']</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
           <t>Turkey</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2432,31 +2386,30 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Turkey']</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr">
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
@@ -2487,31 +2440,30 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Costa Rica']</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
@@ -2542,31 +2494,30 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Turkey']</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Turkey', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr">
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
@@ -2591,29 +2542,28 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['United States', 'South Korea']</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
           <t>Portugal</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2634,29 +2584,28 @@
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Germany', 'Cameroon']</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2683,31 +2632,30 @@
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Republic of Ireland', 'Germany']</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr">
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
@@ -2732,29 +2680,28 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['England', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>Argentina</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2775,29 +2722,28 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Mexico']</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
           <t>Croatia</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2824,31 +2770,30 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Italy', 'Mexico']</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Mexico', 'Italy']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr">
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
@@ -2873,29 +2818,28 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Japan', 'Russia']</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
           <t>Belgium</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2922,31 +2866,30 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Japan', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr">
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
@@ -2977,31 +2920,30 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Japan', 'Russia']</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr">
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
@@ -3032,31 +2974,30 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Japan', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Belgium', 'Japan']</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr">
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
@@ -3081,29 +3022,28 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Ecuador', 'Germany']</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
           <t>Poland</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3124,29 +3064,28 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['England', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
           <t>Paraguay</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3173,31 +3112,30 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['England', 'Paraguay']</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['England', 'Paraguay']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr">
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>England</t>
         </is>
@@ -3228,31 +3166,30 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['England', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr">
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
@@ -3283,31 +3220,30 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['England', 'Paraguay']</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['England', 'Paraguay']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>England</t>
         </is>
@@ -3338,31 +3274,30 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['England', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
@@ -3387,29 +3322,28 @@
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
           <t>Ivory Coast</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3430,29 +3364,28 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Portugal']</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
           <t>Angola</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3473,29 +3406,28 @@
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['Italy', 'Ghana']</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Ghana', 'Italy']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
           <t>Ghana</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3516,29 +3448,28 @@
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
           <t>Croatia</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3565,31 +3496,30 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Brazil']</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr">
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
@@ -3620,31 +3550,30 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr">
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
@@ -3675,31 +3604,30 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Brazil']</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr">
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
@@ -3730,31 +3658,30 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Australia']</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Australia', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Australia</t>
         </is>
@@ -3779,29 +3706,28 @@
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
           <t>France</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3828,31 +3754,30 @@
           <t>France</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['France', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr">
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>France</t>
         </is>
@@ -3877,29 +3802,28 @@
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Spain']</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
           <t>Tunisia</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3920,29 +3844,28 @@
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Uruguay']</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
           <t>South Africa</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3963,29 +3886,28 @@
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
           <t>Greece</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4012,31 +3934,30 @@
           <t>South Korea</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Greece']</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
@@ -4067,31 +3988,30 @@
           <t>South Korea</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Argentina', 'South Korea']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>
@@ -4116,29 +4036,28 @@
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['United States', 'Slovenia']</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
           <t>England</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4165,31 +4084,30 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['England', 'Slovenia']</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="inlineStr">
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>England</t>
         </is>
@@ -4220,31 +4138,30 @@
           <t>Algeria</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['England', 'United States']</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="L79" t="n">
+      <c r="K79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
@@ -4269,29 +4186,28 @@
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['Serbia', 'Ghana']</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
           <t>Serbia</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4318,31 +4234,30 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['Germany', 'Ghana']</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Ghana', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
           <t>Serbia</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="inlineStr">
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
@@ -4367,29 +4282,28 @@
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
           <t>Japan</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4416,31 +4330,30 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['Japan', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="inlineStr">
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
@@ -4465,29 +4378,28 @@
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['Paraguay', 'New Zealand']</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Paraguay', 'New Zealand']</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4514,31 +4426,30 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['Paraguay', 'Slovakia']</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
           <t>New Zealand</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="inlineStr">
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
@@ -4563,29 +4474,28 @@
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Portugal']</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Portugal', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
           <t>Ivory Coast</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4606,29 +4516,28 @@
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['Chile', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Chile']</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
           <t>Switzerland</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4655,31 +4564,30 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['Spain', 'Chile']</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="inlineStr">
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -4704,29 +4612,28 @@
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Brazil']</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
           <t>Mexico</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4747,29 +4654,28 @@
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Chile']</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
           <t>Australia</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4790,29 +4696,28 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['Ivory Coast', 'Colombia']</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
           <t>Japan</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4833,29 +4738,28 @@
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>['Italy', 'Costa Rica']</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
           <t>Uruguay</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4882,31 +4786,30 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Costa Rica']</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="inlineStr">
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>
@@ -4931,29 +4834,28 @@
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>['Ecuador', 'France']</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
           <t>Switzerland</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4980,31 +4882,30 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['France', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="inlineStr">
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
@@ -5029,29 +4930,28 @@
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Nigeria']</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5078,31 +4978,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bosnia and Herzegovina']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="L97" t="n">
+      <c r="K97" t="n">
         <v>1</v>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
@@ -5133,31 +5032,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>['Argentina', 'Nigeria']</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="inlineStr">
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
@@ -5188,31 +5086,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Argentina', 'Bosnia and Herzegovina']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="inlineStr">
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
@@ -5237,29 +5134,28 @@
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['United States', 'Germany']</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
           <t>Ghana</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5280,29 +5176,28 @@
       </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['Algeria', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
           <t>Russia</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5329,31 +5224,30 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Russia']</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
           <t>Algeria</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="inlineStr">
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
@@ -5384,31 +5278,30 @@
           <t>Russia</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>['Algeria', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Belgium', 'Algeria']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
-      <c r="M103" t="inlineStr">
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Algeria</t>
         </is>
@@ -5433,29 +5326,28 @@
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Russia']</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
           <t>Egypt</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5476,29 +5368,28 @@
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Spain']</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
           <t>Morocco</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5519,29 +5410,28 @@
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>['France', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
           <t>Australia</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5562,29 +5452,28 @@
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Nigeria']</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
           <t>Iceland</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5611,31 +5500,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="inlineStr">
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
@@ -5666,31 +5554,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Nigeria']</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="inlineStr">
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
@@ -5721,31 +5608,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="inlineStr">
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
@@ -5770,29 +5656,28 @@
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
           <t>Serbia</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5813,29 +5698,28 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Germany']</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
           <t>Sweden</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5862,31 +5746,30 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="inlineStr">
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
@@ -5911,29 +5794,28 @@
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>['England', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['Belgium', 'England']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
           <t>Tunisia</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5954,29 +5836,28 @@
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>['Japan', 'Colombia']</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Colombia', 'Japan']</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
           <t>Senegal</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5997,10 +5878,14 @@
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>['Ecuador', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6010,16 +5895,11 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
           <t>Senegal</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6046,31 +5926,30 @@
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>['Senegal', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="inlineStr">
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
@@ -6101,31 +5980,30 @@
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>['Ecuador', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="inlineStr">
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
@@ -6156,31 +6034,30 @@
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>['Senegal', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="inlineStr">
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
@@ -6205,29 +6082,28 @@
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>['England', 'Iran']</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Iran</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
           <t>United States</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6254,31 +6130,30 @@
           <t>United States</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>['England', 'United States']</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" t="inlineStr">
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
@@ -6303,29 +6178,28 @@
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>['Poland', 'Saudi Arabia']</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Poland']</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
           <t>Saudi Arabia</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6352,31 +6226,30 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>['Saudi Arabia', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Argentina', 'Saudi Arabia']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" t="inlineStr">
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
@@ -6407,31 +6280,30 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>['Poland', 'Argentina']</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Argentina', 'Poland']</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" t="inlineStr">
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Mexico</t>
         </is>
@@ -6456,29 +6328,28 @@
       </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>['France', 'Australia']</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Australia', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6499,29 +6370,28 @@
       </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>['Spain', 'Costa Rica']</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6548,31 +6418,30 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>['Japan', 'Spain']</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" t="inlineStr">
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
@@ -6603,31 +6472,30 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain']</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" t="inlineStr">
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -6658,31 +6526,30 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>['Japan', 'Spain']</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="inlineStr">
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
@@ -6713,31 +6580,30 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>['Japan', 'Costa Rica']</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Japan']</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="inlineStr">
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
@@ -6768,31 +6634,30 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>['Japan', 'Spain']</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" t="inlineStr">
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
@@ -6817,29 +6682,28 @@
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Morocco']</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Morocco', 'Croatia']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
           <t>Belgium</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6860,29 +6724,28 @@
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
           <t>Cameroon</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6909,31 +6772,30 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Serbia']</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Serbia', 'Brazil']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" t="inlineStr">
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Serbia</t>
         </is>
@@ -6964,31 +6826,30 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" t="inlineStr">
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
@@ -7013,29 +6874,28 @@
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Ghana']</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
           <t>South Korea</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7062,31 +6922,30 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>['Uruguay', 'Portugal']</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M137" t="inlineStr">
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>
@@ -7117,31 +6976,30 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Ghana']</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['Ghana', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="L138" t="n">
+      <c r="K138" t="n">
         <v>1</v>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>

--- a/data/out/kaggle/uefa/standings_wc_eufa_men.xlsx
+++ b/data/out/kaggle/uefa/standings_wc_eufa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>scorer_nationality</t>
+          <t>player_team_name</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Italy', 'Bulgaria', 'Argentina']</t>
+          <t>['Argentina', 'Italy', 'Bulgaria']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Italy</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -558,7 +558,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Mexico', 'Paraguay', 'Belgium']</t>
+          <t>['Paraguay', 'Belgium', 'Mexico']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -600,7 +600,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['France', 'Hungary', 'Soviet Union']</t>
+          <t>['Hungary', 'France', 'Soviet Union']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Algeria']</t>
+          <t>['Brazil', 'Algeria', 'Spain']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Spain', 'Northern Ireland']</t>
+          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -792,7 +792,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Uruguay', 'West Germany', 'Denmark']</t>
+          <t>['West Germany', 'Uruguay', 'Denmark']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -834,7 +834,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Poland', 'Portugal', 'Morocco']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -857,87 +857,111 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Italy', 'Czechoslovakia', 'Austria']</t>
+          <t>['Poland', 'Portugal', 'England']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
+          <t>['Poland', 'England', 'Morocco']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -945,53 +969,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Argentina', 'Soviet Union', 'Cameroon']</t>
+          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1003,49 +1015,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>68</v>
-      </c>
-      <c r="E13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['Romania', 'Argentina', 'Cameroon']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1053,41 +1053,53 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>62</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1095,43 +1107,43 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Romania', 'Cameroon', 'Argentina']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1139,7 +1151,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1153,49 +1165,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1203,41 +1203,53 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
+          <t>['Brazil', 'Sweden', 'Scotland']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1245,41 +1257,53 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1287,7 +1311,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1302,22 +1326,22 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
+          <t>['West Germany', 'Colombia', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1329,53 +1353,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands', 'Egypt']</t>
+          <t>['Uruguay', 'Spain', 'Belgium']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1387,135 +1399,135 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>71</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['England', 'Republic of Ireland', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['United States', 'Romania', 'Switzerland']</t>
+          <t>['Netherlands', 'England', 'Egypt']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'Colombia']</t>
+          <t>['Netherlands', 'England', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1523,7 +1535,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1545,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1548,22 +1560,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Brazil', 'Cameroon', 'Sweden']</t>
+          <t>['Switzerland', 'Romania', 'United States']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1575,43 +1587,43 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Brazil', 'Russia', 'Sweden']</t>
+          <t>['Switzerland', 'Romania', 'Colombia']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1619,7 +1631,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1641,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1644,22 +1656,22 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain', 'South Korea']</t>
+          <t>['Cameroon', 'Brazil', 'Sweden']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1671,41 +1683,53 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Argentina', 'Nigeria']</t>
+          <t>['Brazil', 'Sweden', 'Russia']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1713,7 +1737,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1728,22 +1752,22 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['South Korea', 'Spain', 'Germany']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1755,53 +1779,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>48</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Norway']</t>
+          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1813,49 +1825,37 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>57</v>
-      </c>
-      <c r="E30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1863,91 +1863,115 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>48</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Netherlands', 'Belgium']</t>
+          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>57</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Brazil', 'Morocco']</t>
+          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1962,22 +1986,22 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Italy', 'Chile']</t>
+          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2004,22 +2028,22 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Brazil', 'Morocco']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2031,7 +2055,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2046,22 +2070,22 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Italy', 'Chile']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2073,7 +2097,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2088,22 +2112,22 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Mexico', 'Netherlands']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2115,7 +2139,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2130,22 +2154,22 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Germany', 'Yugoslavia']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2157,41 +2181,53 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['England', 'Romania']</t>
+          <t>['Paraguay', 'Nigeria']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2199,106 +2235,136 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Senegal', 'Denmark']</t>
+          <t>['Spain', 'Nigeria']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>58</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['South Africa', 'Spain']</t>
+          <t>['Paraguay', 'Spain']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2308,24 +2374,30 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2340,22 +2412,22 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2363,47 +2435,47 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Netherlands', 'Belgium']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2411,53 +2483,53 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica']</t>
+          <t>['Netherlands', 'Mexico']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2465,71 +2537,59 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>62</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Germany', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2544,22 +2604,22 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['United States', 'South Korea']</t>
+          <t>['Romania', 'England']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2567,11 +2627,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2586,22 +2646,22 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Germany', 'Cameroon']</t>
+          <t>['Argentina', 'Croatia']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2613,53 +2673,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Germany']</t>
+          <t>['Denmark', 'Senegal']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2667,7 +2715,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2682,22 +2730,22 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Spain', 'South Africa']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2709,7 +2757,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2724,22 +2772,22 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Croatia', 'Mexico']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -2751,43 +2799,43 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -2795,7 +2843,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
@@ -2805,41 +2853,53 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>56</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['Brazil', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2847,43 +2907,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Brazil', 'Turkey']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -2891,7 +2951,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
@@ -2901,53 +2961,41 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>52</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Japan', 'Russia']</t>
+          <t>['South Korea', 'United States']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2955,103 +3003,103 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>78</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Cameroon', 'Germany']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Germany', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3066,22 +3114,22 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3089,101 +3137,89 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>34</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['England', 'Paraguay']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Croatia', 'Mexico']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3191,53 +3227,53 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['England', 'Paraguay']</t>
+          <t>['Italy', 'Mexico']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3245,189 +3281,213 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>90</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Argentina']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>52</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Mexico', 'Portugal']</t>
+          <t>['Russia', 'Japan']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Angola</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>78</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3435,7 +3495,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3450,22 +3510,22 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Ecuador', 'Germany']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3477,53 +3537,41 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3531,53 +3579,41 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" t="n">
-        <v>38</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Argentina', 'Netherlands']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3585,53 +3621,41 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>56</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Brazil']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3639,53 +3663,41 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>79</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Czech Republic', 'Italy']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3693,41 +3705,53 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3735,53 +3759,41 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>55</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3789,169 +3801,205 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Spain']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>38</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Mexico', 'Uruguay']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>56</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['Brazil', 'Croatia']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Argentina', 'Greece']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -3959,159 +4007,147 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>38</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['South Korea', 'Argentina']</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>55</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['United States', 'Slovenia']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>23</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4119,53 +4155,41 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>90</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['Uruguay', 'Mexico']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4173,7 +4197,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -4188,22 +4212,22 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Serbia', 'Ghana']</t>
+          <t>['Greece', 'Argentina']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4215,43 +4239,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Germany', 'Ghana']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="K81" t="n">
@@ -4259,7 +4283,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4293,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -4284,22 +4308,22 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Denmark']</t>
+          <t>['Slovenia', 'United States']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4311,43 +4335,43 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Japan', 'Netherlands']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K83" t="n">
@@ -4355,7 +4379,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -4365,41 +4389,53 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>90</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Paraguay', 'New Zealand']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4407,53 +4443,41 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>25</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Slovakia']</t>
+          <t>['Ghana', 'Germany']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4461,7 +4485,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4476,22 +4500,22 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Netherlands', 'Denmark']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4503,41 +4527,53 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>17</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Chile', 'Switzerland']</t>
+          <t>['Netherlands', 'Japan']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4545,103 +4581,103 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>24</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Paraguay', 'Italy']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>25</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['Mexico', 'Brazil']</t>
+          <t>['Slovakia', 'Paraguay']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4656,22 +4692,22 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Brazil', 'Portugal']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -4679,11 +4715,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4698,22 +4734,22 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Ivory Coast', 'Colombia']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -4725,7 +4761,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4740,22 +4776,22 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['Italy', 'Costa Rica']</t>
+          <t>['Brazil', 'Mexico']</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4767,53 +4803,41 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>81</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Costa Rica']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4821,7 +4845,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4836,22 +4860,22 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['Ecuador', 'France']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -4863,43 +4887,43 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="K95" t="n">
@@ -4907,7 +4931,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -4917,41 +4941,53 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>74</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4959,51 +4995,51 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+          <t>['Greece', 'Colombia']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -5013,53 +5049,41 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>47</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Costa Rica', 'Italy']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5067,43 +5091,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['Bosnia and Herzegovina', 'Argentina']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K99" t="n">
@@ -5111,7 +5135,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Uruguay</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5145,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -5136,22 +5160,22 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['United States', 'Germany']</t>
+          <t>['France', 'Ecuador']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5163,41 +5187,53 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5205,53 +5241,41 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>6</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Argentina', 'Nigeria']</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5259,61 +5283,49 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>60</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Germany', 'United States']</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -5328,22 +5340,22 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
           <t>Russia</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Egypt</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5351,87 +5363,111 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>60</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Algeria', 'Belgium']</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5439,7 +5475,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -5454,22 +5490,22 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Uruguay', 'Russia']</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -5481,53 +5517,41 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>14</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5535,53 +5559,41 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>51</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5593,49 +5605,37 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>86</v>
-      </c>
-      <c r="E110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Nigeria']</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Argentina']</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5643,41 +5643,53 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>14</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5685,41 +5697,53 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>51</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>['Mexico', 'Germany']</t>
+          <t>['Croatia', 'Nigeria']</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5727,43 +5751,43 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['Mexico', 'Sweden']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="K113" t="n">
@@ -5771,7 +5795,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5805,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -5796,22 +5820,22 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -5823,7 +5847,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5838,22 +5862,22 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>['Japan', 'Colombia']</t>
+          <t>['Sweden', 'Mexico']</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -5861,11 +5885,11 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -5880,22 +5904,22 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Netherlands']</t>
+          <t>['England', 'Belgium']</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -5903,57 +5927,45 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>44</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Japan']</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>['Senegal', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5965,49 +5977,37 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>67</v>
-      </c>
-      <c r="E118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Ecuador']</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>['Ecuador', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6019,10 +6019,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>['Senegal', 'Netherlands']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,41 +6069,53 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>67</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6111,43 +6123,43 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="K121" t="n">
@@ -6155,7 +6167,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6177,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -6180,22 +6192,22 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>['Poland', 'Saudi Arabia']</t>
+          <t>['England', 'Iran']</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
@@ -6207,43 +6219,43 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>['Saudi Arabia', 'Argentina']</t>
+          <t>['England', 'United States']</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="K123" t="n">
@@ -6251,7 +6263,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -6265,49 +6277,37 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>47</v>
-      </c>
-      <c r="E124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>['Poland', 'Argentina']</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>['Poland', 'Argentina']</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6372,7 +6372,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>['Spain', 'Costa Rica']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6406,44 +6406,44 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>['Spain', 'Germany']</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>['Japan', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>['Germany', 'Spain']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6484,20 +6484,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -6514,44 +6514,44 @@
         <v>3</v>
       </c>
       <c r="D129" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>['Costa Rica', 'Japan']</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>['Japan', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
       <c r="K129" t="n">
         <v>0</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6582,30 +6582,30 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>['Japan', 'Costa Rica']</t>
+          <t>['Spain', 'Japan']</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="K130" t="n">
         <v>0</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -6615,53 +6615,41 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>73</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>['Japan', 'Spain']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6669,7 +6657,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -6684,22 +6672,22 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -6715,18 +6703,24 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>35</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Brazil', 'Serbia']</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6736,16 +6730,22 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6757,10 +6757,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Brazil', 'Switzerland']</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6784,20 +6784,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
           <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -6807,53 +6807,41 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>44</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Portugal', 'Ghana']</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6865,18 +6853,24 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>26</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Uruguay', 'Portugal']</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6886,16 +6880,22 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6907,99 +6907,45 @@
         </is>
       </c>
       <c r="C137" t="n">
+        <v>2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>90</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>['South Korea', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
         <v>1</v>
       </c>
-      <c r="D137" t="n">
-        <v>32</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
       <c r="L137" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Group H</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>90</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Ghana']</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="K138" t="n">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>

--- a/data/out/kaggle/uefa/standings_wc_eufa_men.xlsx
+++ b/data/out/kaggle/uefa/standings_wc_eufa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Argentina', 'Italy', 'Bulgaria']</t>
+          <t>['Italy', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -558,7 +558,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Belgium', 'Mexico']</t>
+          <t>['Mexico', 'Paraguay', 'Belgium']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -600,7 +600,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Soviet Union']</t>
+          <t>['Soviet Union', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Brazil', 'Algeria', 'Spain']</t>
+          <t>['Algeria', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Brazil', 'Northern Ireland', 'Spain']</t>
+          <t>['Northern Ireland', 'Brazil', 'Spain']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -834,7 +834,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'Morocco']</t>
+          <t>['Portugal', 'Poland', 'Morocco']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Poland', 'Portugal', 'England']</t>
+          <t>['Portugal', 'Poland', 'England']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -984,7 +984,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Austria', 'Czechoslovakia', 'Italy']</t>
+          <t>['Italy', 'Austria', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1026,7 +1026,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Argentina', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Romania', 'Cameroon', 'Argentina']</t>
+          <t>['Romania', 'Argentina', 'Cameroon']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Scotland']</t>
+          <t>['Sweden', 'Brazil', 'Scotland']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Brazil', 'Costa Rica', 'Scotland']</t>
+          <t>['Brazil', 'Scotland', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1368,7 +1368,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Spain', 'Belgium']</t>
+          <t>['Belgium', 'Uruguay', 'Spain']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England', 'Egypt']</t>
+          <t>['Egypt', 'Netherlands', 'England']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1560,7 +1560,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'United States']</t>
+          <t>['Romania', 'United States', 'Switzerland']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'Colombia']</t>
+          <t>['Romania', 'Colombia', 'Switzerland']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1656,7 +1656,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Cameroon', 'Brazil', 'Sweden']</t>
+          <t>['Sweden', 'Brazil', 'Cameroon']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Brazil', 'Sweden', 'Russia']</t>
+          <t>['Russia', 'Sweden', 'Brazil']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1794,7 +1794,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria', 'Bulgaria']</t>
+          <t>['Nigeria', 'Bulgaria', 'Argentina']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1836,17 +1836,17 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Norway', 'Italy', 'Republic of Ireland']</t>
+          <t>['Italy', 'Norway', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico', 'Republic of Ireland']</t>
+          <t>['Mexico', 'Italy', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1986,7 +1986,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Saudi Arabia']</t>
+          <t>['Belgium', 'Netherlands', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2112,7 +2112,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2154,7 +2154,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Nigeria']</t>
+          <t>['Nigeria', 'Paraguay']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Spain', 'Nigeria']</t>
+          <t>['Nigeria', 'Spain']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2412,7 +2412,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium']</t>
+          <t>['Belgium', 'Netherlands']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Mexico']</t>
+          <t>['Mexico', 'Netherlands']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2646,7 +2646,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Argentina', 'Croatia']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2730,7 +2730,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Spain', 'South Africa']</t>
+          <t>['South Africa', 'Spain']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Brazil', 'Turkey']</t>
+          <t>['Turkey', 'Brazil']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2976,7 +2976,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['South Korea', 'United States']</t>
+          <t>['United States', 'South Korea']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Germany', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3156,7 +3156,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Mexico', 'Croatia']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3190,44 +3190,44 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Italy']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>Mexico</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Mexico']</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -3237,53 +3237,41 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>48</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Italy', 'Mexico']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3295,37 +3283,49 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Belgium', 'Japan']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3354,30 +3354,30 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Japan', 'Russia']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Russia</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Belgium</t>
         </is>
       </c>
     </row>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Russia', 'Japan']</t>
+          <t>['Japan', 'Belgium']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3418,76 +3418,64 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" t="n">
-        <v>78</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Japan', 'Belgium']</t>
+          <t>['Germany', 'Ecuador']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3495,7 +3483,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3510,22 +3498,22 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Ecuador', 'Germany']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3537,7 +3525,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3552,22 +3540,22 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Netherlands', 'Argentina']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3579,7 +3567,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3594,22 +3582,22 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Argentina', 'Netherlands']</t>
+          <t>['Portugal', 'Mexico']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3621,7 +3609,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3636,22 +3624,22 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Mexico']</t>
+          <t>['Italy', 'Ghana']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3663,7 +3651,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3678,22 +3666,22 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Italy']</t>
+          <t>['Brazil', 'Australia']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3705,43 +3693,43 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Italy', 'Ghana']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -3749,7 +3737,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -3763,15 +3751,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>38</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>['Brazil', 'Australia']</t>
@@ -3789,11 +3783,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Croatia', 'Brazil']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -3909,53 +3909,41 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
-      </c>
-      <c r="D74" t="n">
-        <v>56</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Brazil', 'Croatia']</t>
+          <t>['Switzerland', 'South Korea']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3963,43 +3951,43 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Brazil', 'Australia']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4007,7 +3995,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4005,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -4032,22 +4020,22 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['South Korea', 'Switzerland']</t>
+          <t>['Ukraine', 'Spain']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4055,65 +4043,53 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>55</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['Mexico', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'France']</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -4128,22 +4104,22 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Spain', 'Ukraine']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4155,41 +4131,53 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Mexico']</t>
+          <t>['Argentina', 'Greece']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4201,18 +4189,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>38</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Greece', 'Argentina']</t>
+          <t>['South Korea', 'Argentina']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4230,8 +4224,14 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4239,53 +4239,41 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>38</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['South Korea', 'Argentina']</t>
+          <t>['United States', 'Slovenia']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4297,37 +4285,49 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Slovenia', 'United States']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4339,47 +4339,47 @@
         </is>
       </c>
       <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>90</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['United States', 'England']</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>1</v>
       </c>
-      <c r="D83" t="n">
-        <v>23</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['Slovenia', 'England']</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>United States</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
     </row>
@@ -4389,53 +4389,41 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>90</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['Serbia', 'Ghana']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4447,15 +4435,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>60</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>['Ghana', 'Germany']</t>
@@ -4463,21 +4457,27 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4500,7 +4500,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Denmark']</t>
+          <t>['Denmark', 'Netherlands']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Japan']</t>
+          <t>['Japan', 'Netherlands']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4596,7 +4596,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Paraguay', 'Italy']</t>
+          <t>['Italy', 'Paraguay']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4692,7 +4692,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['Brazil', 'Portugal']</t>
+          <t>['Portugal', 'Brazil']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4734,7 +4734,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Spain', 'Chile']</t>
+          <t>['Switzerland', 'Chile']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4757,45 +4757,57 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['Brazil', 'Mexico']</t>
+          <t>['Spain', 'Chile']</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4803,7 +4815,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4818,22 +4830,22 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Chile']</t>
+          <t>['Mexico', 'Brazil']</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -4845,7 +4857,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4860,22 +4872,22 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Netherlands', 'Chile']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -4891,49 +4903,37 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>42</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['Colombia', 'Ivory Coast']</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>Ivory Coast</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['Greece', 'Colombia']</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Colombia', 'Ivory Coast']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4972,20 +4972,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
           <t>Ivory Coast</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Greece</t>
-        </is>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['Greece', 'Colombia']</t>
+          <t>['Colombia', 'Ivory Coast']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5026,20 +5026,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Ivory Coast</t>
-        </is>
-      </c>
-      <c r="K97" t="n">
-        <v>3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -5049,41 +5049,53 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>90</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['Costa Rica', 'Italy']</t>
+          <t>['Colombia', 'Greece']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5095,49 +5107,37 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>81</v>
-      </c>
-      <c r="E99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['Italy', 'Costa Rica']</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['Uruguay', 'Costa Rica']</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5145,41 +5145,53 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>81</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['France', 'Ecuador']</t>
+          <t>['Uruguay', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5191,49 +5203,37 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['France', 'Ecuador']</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'France']</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5241,41 +5241,53 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>['Argentina', 'Nigeria']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5283,7 +5295,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -5298,22 +5310,22 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>['Germany', 'United States']</t>
+          <t>['Nigeria', 'Argentina']</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -5325,7 +5337,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -5340,22 +5352,22 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['United States', 'Germany']</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5371,49 +5383,37 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6</v>
-      </c>
-      <c r="E105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Algeria']</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>Algeria</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>['Russia', 'Belgium']</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>['Algeria', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5452,64 +5452,76 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
           <t>Algeria</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Russia</t>
-        </is>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Algeria</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>60</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Russia']</t>
+          <t>['Belgium', 'Algeria']</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5517,7 +5529,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -5532,22 +5544,22 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Russia', 'Uruguay']</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -5559,7 +5571,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -5574,22 +5586,22 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -5601,7 +5613,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -5616,22 +5628,22 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -5647,49 +5659,37 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>14</v>
-      </c>
-      <c r="E111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>['Nigeria', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Argentina']</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>['Croatia', 'Nigeria']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5728,20 +5728,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -5755,10 +5755,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['Croatia', 'Argentina']</t>
+          <t>['Nigeria', 'Croatia']</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5782,20 +5782,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
           <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -5805,41 +5805,53 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>86</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Croatia', 'Argentina']</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5847,7 +5859,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5862,22 +5874,22 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>['Sweden', 'Mexico']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -5889,7 +5901,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -5904,22 +5916,22 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>['England', 'Belgium']</t>
+          <t>['Mexico', 'Germany']</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -5931,49 +5943,61 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>50</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>['Colombia', 'Japan']</t>
+          <t>['Mexico', 'Sweden']</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5988,22 +6012,22 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ecuador']</t>
+          <t>['Belgium', 'England']</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -6011,57 +6035,45 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>44</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>['Japan', 'Colombia']</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Senegal']</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6073,49 +6085,37 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>67</v>
-      </c>
-      <c r="E120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Ecuador']</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Ecuador']</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6127,10 +6127,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6177,41 +6177,53 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>67</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>['England', 'Iran']</t>
+          <t>['Netherlands', 'Ecuador']</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6219,43 +6231,43 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>['England', 'United States']</t>
+          <t>['Netherlands', 'Senegal']</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="K123" t="n">
@@ -6263,7 +6275,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Senegal</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6285,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -6288,22 +6300,22 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>['Poland', 'Argentina']</t>
+          <t>['Iran', 'England']</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
@@ -6315,41 +6327,53 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>38</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>['France', 'Australia']</t>
+          <t>['United States', 'England']</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6357,7 +6381,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -6372,22 +6396,22 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Poland', 'Saudi Arabia']</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
@@ -6399,43 +6423,43 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>['Spain', 'Germany']</t>
+          <t>['Poland', 'Argentina']</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="K127" t="n">
@@ -6443,7 +6467,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -6453,53 +6477,41 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>48</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['France', 'Australia']</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6511,49 +6523,37 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>70</v>
-      </c>
-      <c r="E129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>['Spain', 'Costa Rica']</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>['Costa Rica', 'Japan']</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6582,22 +6582,22 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>['Spain', 'Japan']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K130" t="n">
@@ -6615,41 +6615,53 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>['Croatia', 'Morocco']</t>
+          <t>['Spain', 'Germany']</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6657,41 +6669,53 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>48</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Cameroon</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6699,43 +6723,43 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>['Brazil', 'Serbia']</t>
+          <t>['Japan', 'Costa Rica']</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K133" t="n">
@@ -6743,7 +6767,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
     </row>
@@ -6753,43 +6777,43 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>['Brazil', 'Switzerland']</t>
+          <t>['Japan', 'Spain']</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="K134" t="n">
@@ -6797,7 +6821,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6831,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -6822,22 +6846,22 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Ghana']</t>
+          <t>['Croatia', 'Morocco']</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
@@ -6849,53 +6873,41 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>26</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>['Uruguay', 'Portugal']</t>
+          <t>['Switzerland', 'Brazil']</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6903,49 +6915,253 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>35</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>['Brazil', 'Serbia']</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Group G</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>44</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Brazil']</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>Group H</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Ghana']</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>26</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Uruguay']</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
         <v>2</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D141" t="n">
         <v>90</v>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>['South Korea', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>['Portugal', 'South Korea']</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="K137" t="n">
+      <c r="K141" t="n">
         <v>1</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>South Korea</t>
         </is>
